--- a/data/Baseline Data.xlsx
+++ b/data/Baseline Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yezon\rqye\ECMA31320-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A98DE5C-C486-4D77-BE7D-12C8E427404E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EE92DD-9356-4B80-B975-7A01B76C2536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2CCB92FE-2352-46E7-B0C6-5682DE5195A1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="16">
   <si>
     <t>Instrument</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>GVC BP</t>
+  </si>
+  <si>
+    <t>GVC FP</t>
+  </si>
+  <si>
+    <t>Sector 1</t>
   </si>
 </sst>
 </file>
@@ -429,43 +435,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B81C45B-DC91-452C-A32E-C2EB2242502D}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -631,10 +637,658 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="C12">
+        <v>21.335000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.40760000000000002</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>19.141999999999999</v>
+      </c>
+      <c r="C13">
+        <v>20.914000000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.36009999999999998</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>-9.0934000000000008</v>
+      </c>
+      <c r="C14">
+        <v>26.204000000000001</v>
+      </c>
+      <c r="D14">
+        <v>0.72860000000000003</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>-2.4239999999999999</v>
+      </c>
+      <c r="C15">
+        <v>31.088999999999999</v>
+      </c>
+      <c r="D15">
+        <v>0.93789999999999996</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>2.0903</v>
+      </c>
+      <c r="C16">
+        <v>1.6584000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.20749999999999999</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4.0403000000000002</v>
+      </c>
+      <c r="C17">
+        <v>2.4171999999999998</v>
+      </c>
+      <c r="D17">
+        <v>9.4600000000000004E-2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>2.7730999999999999</v>
+      </c>
+      <c r="C18">
+        <v>1.6815</v>
+      </c>
+      <c r="D18">
+        <v>9.9099999999999994E-2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>-267.57</v>
+      </c>
+      <c r="C21">
+        <v>1264.8</v>
+      </c>
+      <c r="D21">
+        <v>0.83240000000000003</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>-63.106000000000002</v>
+      </c>
+      <c r="C22">
+        <v>67.707999999999998</v>
+      </c>
+      <c r="D22">
+        <v>0.3513</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>88.198999999999998</v>
+      </c>
+      <c r="C23">
+        <v>380.19</v>
+      </c>
+      <c r="D23">
+        <v>0.8165</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>8.6608000000000001</v>
+      </c>
+      <c r="C24">
+        <v>109.6</v>
+      </c>
+      <c r="D24">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>266.64999999999998</v>
+      </c>
+      <c r="C25">
+        <v>2905.1</v>
+      </c>
+      <c r="D25">
+        <v>0.92689999999999995</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>24.321000000000002</v>
+      </c>
+      <c r="C26">
+        <v>42.203000000000003</v>
+      </c>
+      <c r="D26">
+        <v>0.56440000000000001</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>66.721999999999994</v>
+      </c>
+      <c r="C27">
+        <v>552.02</v>
+      </c>
+      <c r="D27">
+        <v>0.90380000000000005</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/Baseline Data.xlsx
+++ b/data/Baseline Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yezon\rqye\ECMA31320-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EE92DD-9356-4B80-B975-7A01B76C2536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCE7C48-D3DF-4D03-9EB1-7DB4CE9349B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2CCB92FE-2352-46E7-B0C6-5682DE5195A1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="17">
   <si>
     <t>Instrument</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Sector 1</t>
+  </si>
+  <si>
+    <t>Sector 2</t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B81C45B-DC91-452C-A32E-C2EB2242502D}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -985,6 +988,15 @@
       <c r="A30" t="s">
         <v>7</v>
       </c>
+      <c r="B30">
+        <v>-8.5996000000000006</v>
+      </c>
+      <c r="C30">
+        <v>15.019</v>
+      </c>
+      <c r="D30">
+        <v>0.56689999999999996</v>
+      </c>
       <c r="E30" t="s">
         <v>10</v>
       </c>
@@ -999,6 +1011,15 @@
       <c r="A31" t="s">
         <v>7</v>
       </c>
+      <c r="B31">
+        <v>-3.9148999999999998</v>
+      </c>
+      <c r="C31">
+        <v>3.9420999999999999</v>
+      </c>
+      <c r="D31">
+        <v>0.32069999999999999</v>
+      </c>
       <c r="E31" t="s">
         <v>10</v>
       </c>
@@ -1013,6 +1034,15 @@
       <c r="A32" t="s">
         <v>7</v>
       </c>
+      <c r="B32">
+        <v>-3.3772000000000002</v>
+      </c>
+      <c r="C32">
+        <v>15.942</v>
+      </c>
+      <c r="D32">
+        <v>0.83220000000000005</v>
+      </c>
       <c r="E32" t="s">
         <v>10</v>
       </c>
@@ -1027,6 +1057,15 @@
       <c r="A33" t="s">
         <v>7</v>
       </c>
+      <c r="B33">
+        <v>0.15570000000000001</v>
+      </c>
+      <c r="C33">
+        <v>8.0385000000000009</v>
+      </c>
+      <c r="D33">
+        <v>0.98450000000000004</v>
+      </c>
       <c r="E33" t="s">
         <v>11</v>
       </c>
@@ -1041,6 +1080,15 @@
       <c r="A34" t="s">
         <v>8</v>
       </c>
+      <c r="B34">
+        <v>-0.55649999999999999</v>
+      </c>
+      <c r="C34">
+        <v>0.84360000000000002</v>
+      </c>
+      <c r="D34">
+        <v>0.50949999999999995</v>
+      </c>
       <c r="E34" t="s">
         <v>10</v>
       </c>
@@ -1055,6 +1103,15 @@
       <c r="A35" t="s">
         <v>8</v>
       </c>
+      <c r="B35">
+        <v>-0.3266</v>
+      </c>
+      <c r="C35">
+        <v>1.1733</v>
+      </c>
+      <c r="D35">
+        <v>0.78069999999999995</v>
+      </c>
       <c r="E35" t="s">
         <v>10</v>
       </c>
@@ -1068,6 +1125,15 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>8</v>
+      </c>
+      <c r="B36">
+        <v>0.12570000000000001</v>
+      </c>
+      <c r="C36">
+        <v>0.78559999999999997</v>
+      </c>
+      <c r="D36">
+        <v>0.87290000000000001</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
@@ -1091,6 +1157,15 @@
       <c r="A39" t="s">
         <v>7</v>
       </c>
+      <c r="B39">
+        <v>13.49</v>
+      </c>
+      <c r="C39">
+        <v>14.153</v>
+      </c>
+      <c r="D39">
+        <v>0.34050000000000002</v>
+      </c>
       <c r="E39" t="s">
         <v>10</v>
       </c>
@@ -1105,6 +1180,15 @@
       <c r="A40" t="s">
         <v>7</v>
       </c>
+      <c r="B40">
+        <v>12.590999999999999</v>
+      </c>
+      <c r="C40">
+        <v>11.974</v>
+      </c>
+      <c r="D40">
+        <v>0.29299999999999998</v>
+      </c>
       <c r="E40" t="s">
         <v>10</v>
       </c>
@@ -1119,6 +1203,15 @@
       <c r="A41" t="s">
         <v>7</v>
       </c>
+      <c r="B41">
+        <v>-5.43</v>
+      </c>
+      <c r="C41">
+        <v>16.382999999999999</v>
+      </c>
+      <c r="D41">
+        <v>0.74029999999999996</v>
+      </c>
       <c r="E41" t="s">
         <v>10</v>
       </c>
@@ -1133,6 +1226,15 @@
       <c r="A42" t="s">
         <v>7</v>
       </c>
+      <c r="B42">
+        <v>-1.8375999999999999</v>
+      </c>
+      <c r="C42">
+        <v>24.154</v>
+      </c>
+      <c r="D42">
+        <v>0.93940000000000001</v>
+      </c>
       <c r="E42" t="s">
         <v>11</v>
       </c>
@@ -1147,6 +1249,15 @@
       <c r="A43" t="s">
         <v>8</v>
       </c>
+      <c r="B43">
+        <v>-1.3339000000000001</v>
+      </c>
+      <c r="C43">
+        <v>2.1318000000000001</v>
+      </c>
+      <c r="D43">
+        <v>0.53149999999999997</v>
+      </c>
       <c r="E43" t="s">
         <v>10</v>
       </c>
@@ -1161,6 +1272,15 @@
       <c r="A44" t="s">
         <v>8</v>
       </c>
+      <c r="B44">
+        <v>-0.92610000000000003</v>
+      </c>
+      <c r="C44">
+        <v>2.0249000000000001</v>
+      </c>
+      <c r="D44">
+        <v>0.64739999999999998</v>
+      </c>
       <c r="E44" t="s">
         <v>10</v>
       </c>
@@ -1174,6 +1294,15 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>8</v>
+      </c>
+      <c r="B45">
+        <v>-1.6332</v>
+      </c>
+      <c r="C45">
+        <v>2.0299</v>
+      </c>
+      <c r="D45">
+        <v>0.42109999999999997</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
@@ -1197,6 +1326,15 @@
       <c r="A48" t="s">
         <v>7</v>
       </c>
+      <c r="B48">
+        <v>-129.26</v>
+      </c>
+      <c r="C48">
+        <v>480.01</v>
+      </c>
+      <c r="D48">
+        <v>0.78769999999999996</v>
+      </c>
       <c r="E48" t="s">
         <v>10</v>
       </c>
@@ -1211,6 +1349,15 @@
       <c r="A49" t="s">
         <v>7</v>
       </c>
+      <c r="B49">
+        <v>-47.481000000000002</v>
+      </c>
+      <c r="C49">
+        <v>48.655000000000001</v>
+      </c>
+      <c r="D49">
+        <v>0.3291</v>
+      </c>
       <c r="E49" t="s">
         <v>10</v>
       </c>
@@ -1225,6 +1372,15 @@
       <c r="A50" t="s">
         <v>7</v>
       </c>
+      <c r="B50">
+        <v>-24.559000000000001</v>
+      </c>
+      <c r="C50">
+        <v>72.963999999999999</v>
+      </c>
+      <c r="D50">
+        <v>0.73640000000000005</v>
+      </c>
       <c r="E50" t="s">
         <v>10</v>
       </c>
@@ -1239,6 +1395,15 @@
       <c r="A51" t="s">
         <v>7</v>
       </c>
+      <c r="B51">
+        <v>-6.0121000000000002</v>
+      </c>
+      <c r="C51">
+        <v>77.754000000000005</v>
+      </c>
+      <c r="D51">
+        <v>0.93840000000000001</v>
+      </c>
       <c r="E51" t="s">
         <v>11</v>
       </c>
@@ -1253,6 +1418,15 @@
       <c r="A52" t="s">
         <v>8</v>
       </c>
+      <c r="B52">
+        <v>-3.5746000000000002</v>
+      </c>
+      <c r="C52">
+        <v>7.5008999999999997</v>
+      </c>
+      <c r="D52">
+        <v>0.63370000000000004</v>
+      </c>
       <c r="E52" t="s">
         <v>10</v>
       </c>
@@ -1267,6 +1441,15 @@
       <c r="A53" t="s">
         <v>8</v>
       </c>
+      <c r="B53">
+        <v>-1.3873</v>
+      </c>
+      <c r="C53">
+        <v>8.4610000000000003</v>
+      </c>
+      <c r="D53">
+        <v>0.86980000000000002</v>
+      </c>
       <c r="E53" t="s">
         <v>10</v>
       </c>
@@ -1281,6 +1464,15 @@
       <c r="A54" t="s">
         <v>8</v>
       </c>
+      <c r="B54">
+        <v>-29.277000000000001</v>
+      </c>
+      <c r="C54">
+        <v>137.35</v>
+      </c>
+      <c r="D54">
+        <v>0.83120000000000005</v>
+      </c>
       <c r="E54" t="s">
         <v>10</v>
       </c>
@@ -1288,6 +1480,324 @@
         <v>11</v>
       </c>
       <c r="G54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" t="s">
         <v>10</v>
       </c>
     </row>

--- a/data/Baseline Data.xlsx
+++ b/data/Baseline Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yezon\rqye\ECMA31320-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCE7C48-D3DF-4D03-9EB1-7DB4CE9349B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A65296F-797A-4AFB-AC13-2B0B8A58F624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2CCB92FE-2352-46E7-B0C6-5682DE5195A1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="18">
   <si>
     <t>Instrument</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Sector 2</t>
+  </si>
+  <si>
+    <t>Sector 10</t>
   </si>
 </sst>
 </file>
@@ -438,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B81C45B-DC91-452C-A32E-C2EB2242502D}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1465,13 +1468,13 @@
         <v>8</v>
       </c>
       <c r="B54">
-        <v>-29.277000000000001</v>
+        <v>-6.3989000000000003</v>
       </c>
       <c r="C54">
-        <v>137.35</v>
+        <v>7.7346000000000004</v>
       </c>
       <c r="D54">
-        <v>0.83120000000000005</v>
+        <v>0.40810000000000002</v>
       </c>
       <c r="E54" t="s">
         <v>10</v>
@@ -1495,6 +1498,15 @@
       <c r="A57" t="s">
         <v>7</v>
       </c>
+      <c r="B57">
+        <v>-2.1640000000000001</v>
+      </c>
+      <c r="C57">
+        <v>2.0964</v>
+      </c>
+      <c r="D57">
+        <v>0.3019</v>
+      </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
@@ -1509,6 +1521,15 @@
       <c r="A58" t="s">
         <v>7</v>
       </c>
+      <c r="B58">
+        <v>-4.3055000000000003</v>
+      </c>
+      <c r="C58">
+        <v>4.0944000000000003</v>
+      </c>
+      <c r="D58">
+        <v>0.29299999999999998</v>
+      </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
@@ -1523,6 +1544,15 @@
       <c r="A59" t="s">
         <v>7</v>
       </c>
+      <c r="B59">
+        <v>-0.75319999999999998</v>
+      </c>
+      <c r="C59">
+        <v>2.6941999999999999</v>
+      </c>
+      <c r="D59">
+        <v>0.77980000000000005</v>
+      </c>
       <c r="E59" t="s">
         <v>10</v>
       </c>
@@ -1537,6 +1567,15 @@
       <c r="A60" t="s">
         <v>7</v>
       </c>
+      <c r="B60">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="C60">
+        <v>3.1528</v>
+      </c>
+      <c r="D60">
+        <v>0.98460000000000003</v>
+      </c>
       <c r="E60" t="s">
         <v>11</v>
       </c>
@@ -1551,6 +1590,15 @@
       <c r="A61" t="s">
         <v>8</v>
       </c>
+      <c r="B61">
+        <v>-0.84899999999999998</v>
+      </c>
+      <c r="C61">
+        <v>0.63029999999999997</v>
+      </c>
+      <c r="D61">
+        <v>0.17799999999999999</v>
+      </c>
       <c r="E61" t="s">
         <v>10</v>
       </c>
@@ -1565,6 +1613,15 @@
       <c r="A62" t="s">
         <v>8</v>
       </c>
+      <c r="B62">
+        <v>-0.76349999999999996</v>
+      </c>
+      <c r="C62">
+        <v>0.67459999999999998</v>
+      </c>
+      <c r="D62">
+        <v>0.25769999999999998</v>
+      </c>
       <c r="E62" t="s">
         <v>10</v>
       </c>
@@ -1578,6 +1635,15 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>8</v>
+      </c>
+      <c r="B63">
+        <v>-0.98580000000000001</v>
+      </c>
+      <c r="C63">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="D63">
+        <v>0.12989999999999999</v>
       </c>
       <c r="E63" t="s">
         <v>10</v>
@@ -1601,6 +1667,15 @@
       <c r="A66" t="s">
         <v>7</v>
       </c>
+      <c r="B66">
+        <v>9.9647000000000006</v>
+      </c>
+      <c r="C66">
+        <v>13.387</v>
+      </c>
+      <c r="D66">
+        <v>0.45669999999999999</v>
+      </c>
       <c r="E66" t="s">
         <v>10</v>
       </c>
@@ -1615,6 +1690,15 @@
       <c r="A67" t="s">
         <v>7</v>
       </c>
+      <c r="B67">
+        <v>38.32</v>
+      </c>
+      <c r="C67">
+        <v>92.037000000000006</v>
+      </c>
+      <c r="D67">
+        <v>0.67720000000000002</v>
+      </c>
       <c r="E67" t="s">
         <v>10</v>
       </c>
@@ -1629,6 +1713,15 @@
       <c r="A68" t="s">
         <v>7</v>
       </c>
+      <c r="B68">
+        <v>-18.401</v>
+      </c>
+      <c r="C68">
+        <v>86.313000000000002</v>
+      </c>
+      <c r="D68">
+        <v>0.83120000000000005</v>
+      </c>
       <c r="E68" t="s">
         <v>10</v>
       </c>
@@ -1643,6 +1736,15 @@
       <c r="A69" t="s">
         <v>7</v>
       </c>
+      <c r="B69">
+        <v>-2.6856</v>
+      </c>
+      <c r="C69">
+        <v>35.465000000000003</v>
+      </c>
+      <c r="D69">
+        <v>0.93959999999999999</v>
+      </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
@@ -1657,6 +1759,15 @@
       <c r="A70" t="s">
         <v>8</v>
       </c>
+      <c r="B70">
+        <v>-9.7799999999999998E-2</v>
+      </c>
+      <c r="C70">
+        <v>1.3016000000000001</v>
+      </c>
+      <c r="D70">
+        <v>0.94010000000000005</v>
+      </c>
       <c r="E70" t="s">
         <v>10</v>
       </c>
@@ -1671,6 +1782,15 @@
       <c r="A71" t="s">
         <v>8</v>
       </c>
+      <c r="B71">
+        <v>-0.57979999999999998</v>
+      </c>
+      <c r="C71">
+        <v>1.4202999999999999</v>
+      </c>
+      <c r="D71">
+        <v>0.68310000000000004</v>
+      </c>
       <c r="E71" t="s">
         <v>10</v>
       </c>
@@ -1684,6 +1804,15 @@
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>8</v>
+      </c>
+      <c r="B72">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="C72">
+        <v>1.2539</v>
+      </c>
+      <c r="D72">
+        <v>0.43180000000000002</v>
       </c>
       <c r="E72" t="s">
         <v>10</v>
@@ -1707,6 +1836,15 @@
       <c r="A75" t="s">
         <v>7</v>
       </c>
+      <c r="B75">
+        <v>-69.718000000000004</v>
+      </c>
+      <c r="C75">
+        <v>262.98</v>
+      </c>
+      <c r="D75">
+        <v>0.79090000000000005</v>
+      </c>
       <c r="E75" t="s">
         <v>10</v>
       </c>
@@ -1721,6 +1859,15 @@
       <c r="A76" t="s">
         <v>7</v>
       </c>
+      <c r="B76">
+        <v>-22.427</v>
+      </c>
+      <c r="C76">
+        <v>19.893999999999998</v>
+      </c>
+      <c r="D76">
+        <v>0.2596</v>
+      </c>
       <c r="E76" t="s">
         <v>10</v>
       </c>
@@ -1735,6 +1882,15 @@
       <c r="A77" t="s">
         <v>7</v>
       </c>
+      <c r="B77">
+        <v>-14.271000000000001</v>
+      </c>
+      <c r="C77">
+        <v>46.402999999999999</v>
+      </c>
+      <c r="D77">
+        <v>0.75839999999999996</v>
+      </c>
       <c r="E77" t="s">
         <v>10</v>
       </c>
@@ -1749,6 +1905,15 @@
       <c r="A78" t="s">
         <v>7</v>
       </c>
+      <c r="B78">
+        <v>-3.4352999999999998</v>
+      </c>
+      <c r="C78">
+        <v>45.826000000000001</v>
+      </c>
+      <c r="D78">
+        <v>0.94020000000000004</v>
+      </c>
       <c r="E78" t="s">
         <v>11</v>
       </c>
@@ -1763,6 +1928,15 @@
       <c r="A79" t="s">
         <v>8</v>
       </c>
+      <c r="B79">
+        <v>-3.7660999999999998</v>
+      </c>
+      <c r="C79">
+        <v>3.4514999999999998</v>
+      </c>
+      <c r="D79">
+        <v>0.2752</v>
+      </c>
       <c r="E79" t="s">
         <v>10</v>
       </c>
@@ -1777,6 +1951,15 @@
       <c r="A80" t="s">
         <v>8</v>
       </c>
+      <c r="B80">
+        <v>-2.4571000000000001</v>
+      </c>
+      <c r="C80">
+        <v>3.8492999999999999</v>
+      </c>
+      <c r="D80">
+        <v>0.52329999999999999</v>
+      </c>
       <c r="E80" t="s">
         <v>10</v>
       </c>
@@ -1791,6 +1974,15 @@
       <c r="A81" t="s">
         <v>8</v>
       </c>
+      <c r="B81">
+        <v>-3.3755999999999999</v>
+      </c>
+      <c r="C81">
+        <v>3.2683</v>
+      </c>
+      <c r="D81">
+        <v>0.30170000000000002</v>
+      </c>
       <c r="E81" t="s">
         <v>10</v>
       </c>
@@ -1798,6 +1990,513 @@
         <v>11</v>
       </c>
       <c r="G81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84">
+        <v>-6.9858000000000002</v>
+      </c>
+      <c r="C84">
+        <v>7.2774000000000001</v>
+      </c>
+      <c r="D84">
+        <v>0.33710000000000001</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85">
+        <v>-5.4839000000000002</v>
+      </c>
+      <c r="C85">
+        <v>4.5598000000000001</v>
+      </c>
+      <c r="D85">
+        <v>0.2291</v>
+      </c>
+      <c r="E85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86">
+        <v>4.4855999999999998</v>
+      </c>
+      <c r="C86">
+        <v>18.13</v>
+      </c>
+      <c r="D86">
+        <v>0.80459999999999998</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87">
+        <v>-0.21909999999999999</v>
+      </c>
+      <c r="C87">
+        <v>11.324</v>
+      </c>
+      <c r="D87">
+        <v>-1.9400000000000001E-2</v>
+      </c>
+      <c r="E87" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88">
+        <v>-1.4556</v>
+      </c>
+      <c r="C88">
+        <v>3.6577999999999999</v>
+      </c>
+      <c r="D88">
+        <v>0.69069999999999998</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89">
+        <v>-0.67810000000000004</v>
+      </c>
+      <c r="C89">
+        <v>2.9333999999999998</v>
+      </c>
+      <c r="D89">
+        <v>0.81720000000000004</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90">
+        <v>-2.2477999999999998</v>
+      </c>
+      <c r="C90">
+        <v>3.1309</v>
+      </c>
+      <c r="D90">
+        <v>0.4728</v>
+      </c>
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93">
+        <v>10.670999999999999</v>
+      </c>
+      <c r="C93">
+        <v>10.125999999999999</v>
+      </c>
+      <c r="D93">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="E93" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94">
+        <v>12.981</v>
+      </c>
+      <c r="C94">
+        <v>10.635999999999999</v>
+      </c>
+      <c r="D94">
+        <v>0.2223</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95">
+        <v>-6.4585999999999997</v>
+      </c>
+      <c r="C95">
+        <v>18.675000000000001</v>
+      </c>
+      <c r="D95">
+        <v>0.72950000000000004</v>
+      </c>
+      <c r="E95" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96">
+        <v>-1.6572</v>
+      </c>
+      <c r="C96">
+        <v>21.31</v>
+      </c>
+      <c r="D96">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="E96" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="C97">
+        <v>1.6802999999999999</v>
+      </c>
+      <c r="D97">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98">
+        <v>0.51959999999999995</v>
+      </c>
+      <c r="C98">
+        <v>2.7235999999999998</v>
+      </c>
+      <c r="D98">
+        <v>0.84870000000000001</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99">
+        <v>1.3455999999999999</v>
+      </c>
+      <c r="C99">
+        <v>1.8201000000000001</v>
+      </c>
+      <c r="D99">
+        <v>0.4597</v>
+      </c>
+      <c r="E99" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102">
+        <v>55.021999999999998</v>
+      </c>
+      <c r="C102">
+        <v>182.79</v>
+      </c>
+      <c r="D102">
+        <v>0.76339999999999997</v>
+      </c>
+      <c r="E102" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103">
+        <v>-21.939</v>
+      </c>
+      <c r="C103">
+        <v>24.068000000000001</v>
+      </c>
+      <c r="D103">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104">
+        <v>-2.8098000000000001</v>
+      </c>
+      <c r="C104">
+        <v>8.3216000000000001</v>
+      </c>
+      <c r="D104">
+        <v>0.73560000000000003</v>
+      </c>
+      <c r="E104" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105">
+        <v>-0.57750000000000001</v>
+      </c>
+      <c r="C105">
+        <v>7.4847999999999999</v>
+      </c>
+      <c r="D105">
+        <v>0.9385</v>
+      </c>
+      <c r="E105" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106">
+        <v>-1.0073000000000001</v>
+      </c>
+      <c r="C106">
+        <v>2.2454999999999998</v>
+      </c>
+      <c r="D106">
+        <v>0.65369999999999995</v>
+      </c>
+      <c r="E106" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107">
+        <v>-5.5399999999999998E-2</v>
+      </c>
+      <c r="C107">
+        <v>2.1842999999999999</v>
+      </c>
+      <c r="D107">
+        <v>0.9798</v>
+      </c>
+      <c r="E107" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108">
+        <v>-0.68030000000000002</v>
+      </c>
+      <c r="C108">
+        <v>2.2000999999999999</v>
+      </c>
+      <c r="D108">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="E108" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" t="s">
         <v>10</v>
       </c>
     </row>
